--- a/sample.xlsx
+++ b/sample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyanagi\Desktop\学校\確率\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koyanagi\Desktop\gitt\probability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E319960-FF78-4C01-8539-73E8D76C0B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6B26C5-FEEB-450E-995F-B9A8E3935CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="230" yWindow="1060" windowWidth="10850" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="1630" windowWidth="10850" windowHeight="8380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -356,7 +356,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
